--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>Requested_By</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>Assignment_Group</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -475,7 +478,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +571,9 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
@@ -623,13 +628,17 @@
       <c r="S2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="U2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
@@ -692,7 +701,9 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>

--- a/Server_Inventory_Linux.xlsx
+++ b/Server_Inventory_Linux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\166058\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\166058\Downloads\assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Requested_By</t>
   </si>
@@ -32,108 +32,13 @@
     <t>Environment</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>Patching_Type</t>
-  </si>
-  <si>
-    <t>Assigned_To</t>
-  </si>
-  <si>
-    <t>Change_Coordinator</t>
-  </si>
-  <si>
-    <t>Short_Description</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Implemention_Plan</t>
-  </si>
-  <si>
-    <t>BackoutPlan</t>
-  </si>
-  <si>
-    <t>ValidationPlan</t>
-  </si>
-  <si>
-    <t>Technical_Approver</t>
-  </si>
-  <si>
-    <t>Director_Approver</t>
-  </si>
-  <si>
-    <t>Sr_Director_Approver</t>
-  </si>
-  <si>
-    <t>VP_Approver</t>
-  </si>
-  <si>
-    <t>Product_Approver</t>
-  </si>
-  <si>
-    <t>Affected_CIs</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>Dev_1 |Linux Patching</t>
-  </si>
-  <si>
-    <t>PFA</t>
-  </si>
-  <si>
-    <t>DEV|  2019OraclePatching for ch3dr017253</t>
-  </si>
-  <si>
-    <t>App Name:AutoFax/ Alpha/ Ops Reconfig/ TMW/ EIS (Imaging)_x000D_
-Database:DDB1F2N,DDB1F1N,DDB1F0N_x000D_
-Server:ch3dr017253</t>
-  </si>
-  <si>
-    <t>Prod_5 | 2019 February HPUX Patching</t>
-  </si>
-  <si>
-    <t>Network</t>
-  </si>
-  <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>3Com DMI Agent</t>
-  </si>
-  <si>
-    <t>CAB Approval</t>
-  </si>
-  <si>
-    <t>Beth Anglin</t>
-  </si>
-  <si>
     <t>.Devon Samrah</t>
   </si>
   <si>
-    <t>.Abraham Lincoln</t>
-  </si>
-  <si>
-    <t>.Bart Hachey</t>
-  </si>
-  <si>
     <t>Planned_Start_date</t>
   </si>
   <si>
     <t>Planned_End_date</t>
-  </si>
-  <si>
-    <t>Assignment_Group</t>
   </si>
   <si>
     <t>NA</t>
@@ -185,14 +90,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -475,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -485,27 +387,11 @@
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,256 +399,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="C2" s="3">
+        <v>43542.875</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43543.208333333336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>17</v>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>43542.875</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43543.208333333336</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>43542.875</v>
       </c>
-      <c r="L2" s="3">
+      <c r="D4" s="5">
         <v>43543.208333333336</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3">
-        <v>43542.875</v>
-      </c>
-      <c r="L3" s="3">
-        <v>43543.208333333336</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="6">
-        <v>43542.875</v>
-      </c>
-      <c r="L4" s="6">
-        <v>43543.208333333336</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
